--- a/output.xlsx
+++ b/output.xlsx
@@ -1,128 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm110\OneDrive - MSFT\New Drive\Geekster\Geekster-Module-6\Node\web-scrapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF15CE42-A0EF-42B7-BCD3-594EEB60B4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>₹1,499</t>
-  </si>
-  <si>
-    <t>Fire-Boltt Ninja Call Pro Plus 1.83" Smart Watch with Bluetooth Calling, AI Voice Assistance, 100 Sports Modes IP67 Rating, 240 * 280 Pixel High Resolution</t>
-  </si>
-  <si>
-    <t>4.2 out of 5 stars</t>
-  </si>
-  <si>
-    <t>₹19,999</t>
-  </si>
-  <si>
-    <t>Noise Newly Launched Quad Call 1.81" Display, Bluetooth Calling Smart Watch, AI Voice Assistance, 160+Hrs Battery Life, Metallic Build, in-Built Games, 100 Sports Modes, 100+ Watch Faces (Rose Pink)</t>
-  </si>
-  <si>
-    <t>4.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>₹1,299</t>
-  </si>
-  <si>
-    <t>Noise Twist Round dial Smart Watch with Bluetooth Calling, 1.38" TFT Display, up-to 7 Days Battery, 100+ Watch Faces, IP68, Heart Rate Monitor, Sleep Tracking (Jet Black)</t>
-  </si>
-  <si>
-    <t>₹5,999</t>
-  </si>
-  <si>
-    <t>HAMMER Active 2.0 Plus 2.1" HD Display Smart Watch with Gesture Control, Bluetooth Calling, DIY Watch Face Studio, Sports Modes, Functional Crown, Dynamic Island Notification, Menstrual Cycle (Black)</t>
-  </si>
-  <si>
-    <t>₹4,999</t>
-  </si>
-  <si>
-    <t>beatXP Flare Pro 1.39” HD Display Bluetooth Calling Smart Watch, 100+ Sports Modes, Heart Rate Monitoring, SpO2, AI Voice Assistant, IP68 - Black</t>
-  </si>
-  <si>
-    <t>4.1 out of 5 stars</t>
-  </si>
-  <si>
-    <t>₹1,199</t>
-  </si>
-  <si>
-    <t>Noise Pulse Go Buzz Smart Watch with Advanced Bluetooth Calling, 1.69" TFT Display, SpO2, 100 Sports Mode with Auto Detection, Upto 7 Days Battery (2 Days with Heavy Calling) - Rose Pink</t>
-  </si>
-  <si>
-    <t>beatXP Flare Pro 1.39” HD Display Bluetooth Calling Smart Watch, 100+ Sports Modes, Heart Rate Monitoring, SpO2, AI Voice Assistant, IP68 - Champagne Gold</t>
-  </si>
-  <si>
-    <t>₹2,399</t>
-  </si>
-  <si>
-    <t>Noise Pulse 2 Max 1.85" Display, Bluetooth Calling Smart Watch, 10 Days Battery, 550 NITS Brightness, Smart DND, 100 Sports Modes, Smartwatch for Men and Women (Jet Black)</t>
-  </si>
-  <si>
-    <t>3.9 out of 5 stars</t>
-  </si>
-  <si>
-    <t>boAt Xtend Smart Watch with Alexa Built-in, 1.69” HD Display, Multiple Watch Faces, Stress Monitor, HR &amp; SpO2 Monitoring, 14 Sports Modes, Sleep Monitor, 5 ATM &amp; 7 Days Battery Life(Olive Green)</t>
-  </si>
-  <si>
-    <t>₹999</t>
-  </si>
-  <si>
-    <t>boAt Wave Style Call Smart Watch with Advanced BT Calling Chip,DIY Watch Face Studio, Coins, 1.69" HD Display, Health Ecosystem, Live Cricket Scores, Quick Replies, HR &amp; SpO2(Active Black)</t>
-  </si>
-  <si>
-    <t>₹5,499</t>
-  </si>
-  <si>
-    <t>Fire-Boltt Phoenix Smart Watch with Bluetooth Calling 1.3",120+ Sports Modes, 240 * 240 PX High Res with SpO2, Heart Rate Monitoring &amp; IP67 Rating (Silver Grey)</t>
-  </si>
-  <si>
-    <t>beatXP Flux 1.45" (3.6 cm) Ultra HD Display Bluetooth Calling Smart Watch, 415 * 415px, 60Hz Refresh Rate, Rotary Crown, 500 Nits, Health Tracking, 100+ Sports Modes (Black)</t>
-  </si>
-  <si>
-    <t>Fire-Boltt Phoenix Pro 1.39" Bluetooth Calling Smartwatch, AI Voice Assistant, Metal Body with 120+ Sports Modes, SpO2, Heart Rate Monitoring (Black)</t>
-  </si>
-  <si>
-    <t>3.8 out of 5 stars</t>
-  </si>
-  <si>
-    <t>Fire-Boltt Lumos Stainless Steel Luxury Smart Watch with 1.91” Large Display, Bluetooth Calling, Voice Assistant, 100+ Sports Modes</t>
-  </si>
-  <si>
-    <t>Titan Crest Premium Smart Watch|1.43" AMOLED Display with AOD|466x466 Pixel Resolution|Functional Crown|SingleSync BT Calling|Advanced Chipset|100+ Sports Modes &amp; WatchfacesIP68 Smartwatch</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -491,203 +396,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="175.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Price</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Title</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Rating</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>₹1,499</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Fire-Boltt Ninja Call Pro Plus 1.83" Smart Watch with Bluetooth Calling, AI Voice Assistance, 100 Sports Modes IP67 Rating, 240 * 280 Pixel High Resolution</v>
+      </c>
+      <c r="C2" t="str">
+        <v>4.2 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>₹19,999</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Noise Newly Launched Quad Call 1.81" Display, Bluetooth Calling Smart Watch, AI Voice Assistance, 160+Hrs Battery Life, Metallic Build, in-Built Games, 100 Sports Modes, 100+ Watch Faces (Rose Pink)</v>
+      </c>
+      <c r="C3" t="str">
+        <v>4.0 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>₹1,299</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Noise Twist Round dial Smart Watch with Bluetooth Calling, 1.38" TFT Display, up-to 7 Days Battery, 100+ Watch Faces, IP68, Heart Rate Monitor, Sleep Tracking (Jet Black)</v>
+      </c>
+      <c r="C4" t="str">
+        <v>4.0 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>₹5,999</v>
+      </c>
+      <c r="B5" t="str">
+        <v>beatXP Flare Pro 1.39” HD Display Bluetooth Calling Smart Watch, 100+ Sports Modes, Heart Rate Monitoring, SpO2, AI Voice Assistant, IP68 - Black</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4.2 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>₹1,499</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Fire-Boltt Ninja Call Pro Plus 1.83" Smart Watch with Bluetooth Calling, AI Voice Assistance, 100 Sports Modes IP67 Rating, 240 * 280 Pixel High Resolution</v>
+      </c>
+      <c r="C6" t="str">
+        <v>4.1 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>₹4,999</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Noise Pulse Go Buzz Smart Watch with Advanced Bluetooth Calling, 1.69" TFT Display, SpO2, 100 Sports Mode with Auto Detection, Upto 7 Days Battery (2 Days with Heavy Calling) - Rose Pink</v>
+      </c>
+      <c r="C7" t="str">
+        <v>4.2 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>₹999</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Fire-Boltt Phoenix Smart Watch with Bluetooth Calling 1.3",120+ Sports Modes, 240 * 240 PX High Res with SpO2, Heart Rate Monitoring &amp; IP67 Rating (Silver Grey)</v>
+      </c>
+      <c r="C8" t="str">
+        <v>4.2 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>₹5,499</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Fire-Boltt Ninja Call Pro Smart Watch Dual Chip Bluetooth Calling, 1.69" Display, AI Voice Assistance with 100 Sports Modes, with SpO2 &amp; Heart Rate Monitoring</v>
+      </c>
+      <c r="C9" t="str">
+        <v>4.1 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>₹1,199</v>
+      </c>
+      <c r="B10" t="str">
+        <v>beatXP Flare Pro 1.39” HD Display Bluetooth Calling Smart Watch, 100+ Sports Modes, Heart Rate Monitoring, SpO2, AI Voice Assistant, IP68 - Champagne Gold</v>
+      </c>
+      <c r="C10" t="str">
+        <v>4.1 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>₹19,999</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Noise Pulse 2 Max 1.85" Display, Bluetooth Calling Smart Watch, 10 Days Battery, 550 NITS Brightness, Smart DND, 100 Sports Modes, Smartwatch for Men and Women (Jet Black)</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3.9 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>₹1,199</v>
+      </c>
+      <c r="B12" t="str">
+        <v>boAt Xtend Smart Watch with Alexa Built-in, 1.69” HD Display, Multiple Watch Faces, Stress Monitor, HR &amp; SpO2 Monitoring, 14 Sports Modes, Sleep Monitor, 5 ATM &amp; 7 Days Battery Life(Olive Green)</v>
+      </c>
+      <c r="C12" t="str">
+        <v>4.0 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>₹4,999</v>
+      </c>
+      <c r="B13" t="str">
+        <v>boAt Wave Style Call Smart Watch with Advanced BT Calling Chip,DIY Watch Face Studio, Coins, 1.69" HD Display, Health Ecosystem, Live Cricket Scores, Quick Replies, HR &amp; SpO2(Active Black)</v>
+      </c>
+      <c r="C13" t="str">
+        <v>3.9 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>₹1,499</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Fire-Boltt Gladiator 1.96" Biggest Display Smart Watch with Bluetooth Calling, Voice Assistant &amp;123 Sports Modes, 8 Unique UI Interactions, SpO2, 24/7 Heart Rate Tracking (Black)</v>
+      </c>
+      <c r="C14" t="str">
+        <v>4.1 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>₹9,999</v>
+      </c>
+      <c r="B15" t="str">
+        <v>beatXP Flux 1.45" (3.6 cm) Ultra HD Display Bluetooth Calling Smart Watch, 415 * 415px, 60Hz Refresh Rate, Rotary Crown, 500 Nits, Health Tracking, 100+ Sports Modes (Black)</v>
+      </c>
+      <c r="C15" t="str">
+        <v>4.2 out of 5 stars</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>₹1,299</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Fire-Boltt Lumos Stainless Steel Luxury Smart Watch with 1.91” Large Display, Bluetooth Calling, Voice Assistant, 100+ Sports Modes</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>₹17,999</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Fire-Boltt Newly Launched Ninja Call Pro Max 2.01” Display Smart Watch, Bluetooth Calling, 120+ Sports Modes, Health Suite, Voice Assistance</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C17" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
   </ignoredErrors>
 </worksheet>
 </file>